--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H2">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I2">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J2">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>373.0275971956207</v>
+        <v>45884.82207673602</v>
       </c>
       <c r="R2">
-        <v>373.0275971956207</v>
+        <v>412963.3986906242</v>
       </c>
       <c r="S2">
-        <v>0.001386886121396412</v>
+        <v>0.07620209193438317</v>
       </c>
       <c r="T2">
-        <v>0.001386886121396412</v>
+        <v>0.07620209193438317</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H3">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I3">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J3">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>686.7903913874261</v>
+        <v>75591.30629694724</v>
       </c>
       <c r="R3">
-        <v>686.7903913874261</v>
+        <v>680321.7566725252</v>
       </c>
       <c r="S3">
-        <v>0.002553430548528899</v>
+        <v>0.1255364064013788</v>
       </c>
       <c r="T3">
-        <v>0.002553430548528899</v>
+        <v>0.1255364064013788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H4">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I4">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J4">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>260.7369919242586</v>
+        <v>30326.30690139121</v>
       </c>
       <c r="R4">
-        <v>260.7369919242586</v>
+        <v>272936.7621125209</v>
       </c>
       <c r="S4">
-        <v>0.0009693988277354397</v>
+        <v>0.05036366977004779</v>
       </c>
       <c r="T4">
-        <v>0.0009693988277354397</v>
+        <v>0.0503636697700478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H5">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I5">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J5">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>591.775515183086</v>
+        <v>66903.99982886865</v>
       </c>
       <c r="R5">
-        <v>591.775515183086</v>
+        <v>602135.9984598178</v>
       </c>
       <c r="S5">
-        <v>0.002200173003712736</v>
+        <v>0.1111091754308501</v>
       </c>
       <c r="T5">
-        <v>0.002200173003712736</v>
+        <v>0.1111091754308501</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H6">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I6">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J6">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>1072.566491451723</v>
+        <v>1211.763456788741</v>
       </c>
       <c r="R6">
-        <v>1072.566491451723</v>
+        <v>10905.87111109867</v>
       </c>
       <c r="S6">
-        <v>0.003987714561743694</v>
+        <v>0.002012406415840897</v>
       </c>
       <c r="T6">
-        <v>0.003987714561743694</v>
+        <v>0.002012406415840897</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H7">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I7">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J7">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>1974.728856500313</v>
+        <v>1996.276295206704</v>
       </c>
       <c r="R7">
-        <v>1974.728856500313</v>
+        <v>17966.48665686033</v>
       </c>
       <c r="S7">
-        <v>0.007341880507476412</v>
+        <v>0.0033152668548953</v>
       </c>
       <c r="T7">
-        <v>0.007341880507476412</v>
+        <v>0.0033152668548953</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H8">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I8">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J8">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>749.6972414971806</v>
+        <v>800.8816166053691</v>
       </c>
       <c r="R8">
-        <v>749.6972414971806</v>
+        <v>7207.934549448321</v>
       </c>
       <c r="S8">
-        <v>0.002787313076293274</v>
+        <v>0.001330044485626585</v>
       </c>
       <c r="T8">
-        <v>0.002787313076293274</v>
+        <v>0.001330044485626585</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H9">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I9">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J9">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>1701.53252150431</v>
+        <v>1766.854886568849</v>
       </c>
       <c r="R9">
-        <v>1701.53252150431</v>
+        <v>15901.69397911964</v>
       </c>
       <c r="S9">
-        <v>0.006326158860416541</v>
+        <v>0.002934260882081445</v>
       </c>
       <c r="T9">
-        <v>0.006326158860416541</v>
+        <v>0.002934260882081445</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H10">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I10">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J10">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>47900.98462188315</v>
+        <v>68250.33375619866</v>
       </c>
       <c r="R10">
-        <v>47900.98462188315</v>
+        <v>614253.0038057879</v>
       </c>
       <c r="S10">
-        <v>0.1780919462065275</v>
+        <v>0.1133450664523562</v>
       </c>
       <c r="T10">
-        <v>0.1780919462065275</v>
+        <v>0.1133450664523562</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H11">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I11">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J11">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>88191.6947261521</v>
+        <v>112436.5672641327</v>
       </c>
       <c r="R11">
-        <v>88191.6947261521</v>
+        <v>1011929.105377194</v>
       </c>
       <c r="S11">
-        <v>0.3278895136918985</v>
+        <v>0.1867262691161636</v>
       </c>
       <c r="T11">
-        <v>0.3278895136918985</v>
+        <v>0.1867262691161637</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H12">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I12">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J12">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>33481.59421558907</v>
+        <v>45108.1746410924</v>
       </c>
       <c r="R12">
-        <v>33481.59421558907</v>
+        <v>405973.5717698316</v>
       </c>
       <c r="S12">
-        <v>0.1244818310734142</v>
+        <v>0.07491229376991509</v>
       </c>
       <c r="T12">
-        <v>0.1244818310734142</v>
+        <v>0.07491229376991511</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H13">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I13">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J13">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N13">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q13">
-        <v>75990.70434868289</v>
+        <v>99514.83107657192</v>
       </c>
       <c r="R13">
-        <v>75990.70434868289</v>
+        <v>895633.4796891473</v>
       </c>
       <c r="S13">
-        <v>0.2825272285713973</v>
+        <v>0.165266812931074</v>
       </c>
       <c r="T13">
-        <v>0.2825272285713973</v>
+        <v>0.165266812931074</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H14">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I14">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J14">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N14">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q14">
-        <v>3119.447602478389</v>
+        <v>10983.99766332804</v>
       </c>
       <c r="R14">
-        <v>3119.447602478389</v>
+        <v>98855.97896995235</v>
       </c>
       <c r="S14">
-        <v>0.01159785125504216</v>
+        <v>0.01824140449641933</v>
       </c>
       <c r="T14">
-        <v>0.01159785125504216</v>
+        <v>0.01824140449641933</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H15">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I15">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J15">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N15">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P15">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q15">
-        <v>5743.292603349115</v>
+        <v>18095.19344643049</v>
       </c>
       <c r="R15">
-        <v>5743.292603349115</v>
+        <v>162856.7410178744</v>
       </c>
       <c r="S15">
-        <v>0.021353092539495</v>
+        <v>0.03005114833548528</v>
       </c>
       <c r="T15">
-        <v>0.021353092539495</v>
+        <v>0.03005114833548529</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H16">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I16">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J16">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N16">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q16">
-        <v>2180.416115188982</v>
+        <v>7259.570138142401</v>
       </c>
       <c r="R16">
-        <v>2180.416115188982</v>
+        <v>65336.13124328161</v>
       </c>
       <c r="S16">
-        <v>0.008106608925877563</v>
+        <v>0.01205615290706998</v>
       </c>
       <c r="T16">
-        <v>0.008106608925877563</v>
+        <v>0.01205615290706999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H17">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I17">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J17">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N17">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q17">
-        <v>4948.729600494458</v>
+        <v>16015.6091824573</v>
       </c>
       <c r="R17">
-        <v>4948.729600494458</v>
+        <v>144140.4826421157</v>
       </c>
       <c r="S17">
-        <v>0.01839897222904436</v>
+        <v>0.02659752981641236</v>
       </c>
       <c r="T17">
-        <v>0.01839897222904436</v>
+        <v>0.02659752981641236</v>
       </c>
     </row>
   </sheetData>
